--- a/Documentation/7.RCT.xlsx
+++ b/Documentation/7.RCT.xlsx
@@ -3351,7 +3351,7 @@
       <c r="I9" s="54"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
-      <c r="L9" s="48"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
